--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H2">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I2">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J2">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>117.129031547412</v>
+        <v>105.7088396754755</v>
       </c>
       <c r="R2">
-        <v>1054.161283926708</v>
+        <v>951.3795570792798</v>
       </c>
       <c r="S2">
-        <v>0.07760739537597877</v>
+        <v>0.1416670064002006</v>
       </c>
       <c r="T2">
-        <v>0.1007691980999369</v>
+        <v>0.1527084579130085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H3">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I3">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J3">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>75.73109586050934</v>
+        <v>48.54902869744534</v>
       </c>
       <c r="R3">
-        <v>681.579862744584</v>
+        <v>436.941258277008</v>
       </c>
       <c r="S3">
-        <v>0.05017793642666346</v>
+        <v>0.06506358011609281</v>
       </c>
       <c r="T3">
-        <v>0.06515346110416632</v>
+        <v>0.07013460112060323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H4">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I4">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J4">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>4.454952898418888</v>
+        <v>3.929300520196889</v>
       </c>
       <c r="R4">
-        <v>40.09457608576999</v>
+        <v>35.363704681772</v>
       </c>
       <c r="S4">
-        <v>0.002951764275699729</v>
+        <v>0.005265900596884403</v>
       </c>
       <c r="T4">
-        <v>0.00383271359129222</v>
+        <v>0.005676322102845461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H5">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I5">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J5">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>18.58890929700333</v>
+        <v>6.561386302420667</v>
       </c>
       <c r="R5">
-        <v>111.53345578202</v>
+        <v>39.368317814524</v>
       </c>
       <c r="S5">
-        <v>0.0123166461325755</v>
+        <v>0.008793322849374431</v>
       </c>
       <c r="T5">
-        <v>0.01066168628258059</v>
+        <v>0.006319113186057458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H6">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I6">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J6">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>8.756602126870222</v>
+        <v>2.235168313984889</v>
       </c>
       <c r="R6">
-        <v>78.809419141832</v>
+        <v>20.116514825864</v>
       </c>
       <c r="S6">
-        <v>0.005801952551234677</v>
+        <v>0.002995488407733282</v>
       </c>
       <c r="T6">
-        <v>0.00753353598802475</v>
+        <v>0.003228955189107425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>77.369203</v>
       </c>
       <c r="I7">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J7">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>122.967361741674</v>
+        <v>173.1132478493755</v>
       </c>
       <c r="R7">
-        <v>1106.706255675066</v>
+        <v>1558.01923064438</v>
       </c>
       <c r="S7">
-        <v>0.08147575827231332</v>
+        <v>0.2319998560794597</v>
       </c>
       <c r="T7">
-        <v>0.1057920677006327</v>
+        <v>0.250081802094775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>77.369203</v>
       </c>
       <c r="I8">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J8">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>79.50593406898534</v>
@@ -948,10 +948,10 @@
         <v>715.553406620868</v>
       </c>
       <c r="S8">
-        <v>0.05267907006923921</v>
+        <v>0.1065508589932804</v>
       </c>
       <c r="T8">
-        <v>0.06840105407236358</v>
+        <v>0.1148553765596279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>77.369203</v>
       </c>
       <c r="I9">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J9">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>4.677011304240555</v>
+        <v>6.434788016931888</v>
       </c>
       <c r="R9">
-        <v>42.093101738165</v>
+        <v>57.913092152387</v>
       </c>
       <c r="S9">
-        <v>0.00309889581319721</v>
+        <v>0.008623660594300468</v>
       </c>
       <c r="T9">
-        <v>0.004023756300263496</v>
+        <v>0.009295784137632048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>77.369203</v>
       </c>
       <c r="I10">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J10">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>19.51547881604833</v>
+        <v>10.74520254591317</v>
       </c>
       <c r="R10">
-        <v>117.09287289629</v>
+        <v>64.471215275479</v>
       </c>
       <c r="S10">
-        <v>0.01293057289400995</v>
+        <v>0.01440031583466991</v>
       </c>
       <c r="T10">
-        <v>0.01119312109530798</v>
+        <v>0.01034844588706626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>77.369203</v>
       </c>
       <c r="I11">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J11">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>9.193077473084887</v>
+        <v>3.660405766554889</v>
       </c>
       <c r="R11">
-        <v>82.737697257764</v>
+        <v>32.943651898994</v>
       </c>
       <c r="S11">
-        <v>0.006091152541348463</v>
+        <v>0.004905537973454537</v>
       </c>
       <c r="T11">
-        <v>0.007909047251520859</v>
+        <v>0.005287873007238798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H12">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I12">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J12">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>39.63091668893401</v>
+        <v>16.2180054729</v>
       </c>
       <c r="R12">
-        <v>356.6782502004061</v>
+        <v>145.9620492561</v>
       </c>
       <c r="S12">
-        <v>0.02625866687325594</v>
+        <v>0.02173476023557987</v>
       </c>
       <c r="T12">
-        <v>0.03409552390171305</v>
+        <v>0.02342875594694346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H13">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I13">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J13">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>25.62381598446534</v>
+        <v>7.44846330294</v>
       </c>
       <c r="R13">
-        <v>230.614343860188</v>
+        <v>67.03616972646</v>
       </c>
       <c r="S13">
-        <v>0.01697783710729968</v>
+        <v>0.009982150042027824</v>
       </c>
       <c r="T13">
-        <v>0.02204484537183019</v>
+        <v>0.01076015353404251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H14">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I14">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J14">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>1.507345060723889</v>
+        <v>0.6028390580849999</v>
       </c>
       <c r="R14">
-        <v>13.566105546515</v>
+        <v>5.425551522765</v>
       </c>
       <c r="S14">
-        <v>0.0009987372263747904</v>
+        <v>0.0008079022053614688</v>
       </c>
       <c r="T14">
-        <v>0.001296808750335844</v>
+        <v>0.0008708696757291956</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H15">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I15">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J15">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>6.289606478898334</v>
+        <v>1.0066575254175</v>
       </c>
       <c r="R15">
-        <v>37.73763887339</v>
+        <v>6.039945152505</v>
       </c>
       <c r="S15">
-        <v>0.004167369697491244</v>
+        <v>0.001349084509242009</v>
       </c>
       <c r="T15">
-        <v>0.003607409668178358</v>
+        <v>0.0009694876279975908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H16">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I16">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J16">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>2.962819420458223</v>
+        <v>0.34292280627</v>
       </c>
       <c r="R16">
-        <v>26.665374784124</v>
+        <v>3.08630525643</v>
       </c>
       <c r="S16">
-        <v>0.001963105945241721</v>
+        <v>0.0004595722319890114</v>
       </c>
       <c r="T16">
-        <v>0.002548991767200279</v>
+        <v>0.000495391048558092</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H17">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I17">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J17">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>491.017259431503</v>
+        <v>85.01481496225665</v>
       </c>
       <c r="R17">
-        <v>2946.103556589018</v>
+        <v>510.0888897735399</v>
       </c>
       <c r="S17">
-        <v>0.3253383903691311</v>
+        <v>0.1139336537260663</v>
       </c>
       <c r="T17">
-        <v>0.2816234075785772</v>
+        <v>0.08187572160475248</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H18">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I18">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J18">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>317.4727448174941</v>
+        <v>39.044858537674</v>
       </c>
       <c r="R18">
-        <v>1904.836468904964</v>
+        <v>234.269151226044</v>
       </c>
       <c r="S18">
-        <v>0.2103512041604759</v>
+        <v>0.05232644915347481</v>
       </c>
       <c r="T18">
-        <v>0.182086789194218</v>
+        <v>0.03760316327391654</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H19">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I19">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J19">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>18.6756326265075</v>
+        <v>3.160083467770166</v>
       </c>
       <c r="R19">
-        <v>112.053795759045</v>
+        <v>18.960500806621</v>
       </c>
       <c r="S19">
-        <v>0.01237410730707882</v>
+        <v>0.004235024868574223</v>
       </c>
       <c r="T19">
-        <v>0.01071142652918577</v>
+        <v>0.003043400310519985</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H20">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I20">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J20">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>77.9266692317925</v>
+        <v>5.27690062731425</v>
       </c>
       <c r="R20">
-        <v>311.70667692717</v>
+        <v>21.107602509257</v>
       </c>
       <c r="S20">
-        <v>0.0516326802117956</v>
+        <v>0.007071903515713127</v>
       </c>
       <c r="T20">
-        <v>0.02979660926205186</v>
+        <v>0.003388037303770636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H21">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I21">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J21">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>36.708600092262</v>
+        <v>1.797601990583667</v>
       </c>
       <c r="R21">
-        <v>220.251600553572</v>
+        <v>10.785611943502</v>
       </c>
       <c r="S21">
-        <v>0.02432239730340206</v>
+        <v>0.002409078497946195</v>
       </c>
       <c r="T21">
-        <v>0.02105425185540601</v>
+        <v>0.001731227200841636</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H22">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I22">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J22">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>16.118383563594</v>
+        <v>92.31231386063554</v>
       </c>
       <c r="R22">
-        <v>145.065452072346</v>
+        <v>830.8108247457197</v>
       </c>
       <c r="S22">
-        <v>0.01067972431356756</v>
+        <v>0.1237134869577609</v>
       </c>
       <c r="T22">
-        <v>0.01386707091241599</v>
+        <v>0.1333556506657008</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H23">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I23">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J23">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>10.421522611812</v>
+        <v>42.39638982422133</v>
       </c>
       <c r="R23">
-        <v>93.79370350630799</v>
+        <v>381.567508417992</v>
       </c>
       <c r="S23">
-        <v>0.006905096158224552</v>
+        <v>0.05681804517968611</v>
       </c>
       <c r="T23">
-        <v>0.008965911035878101</v>
+        <v>0.06124641355454817</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H24">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I24">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J24">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.613055863485</v>
+        <v>3.431338608830889</v>
       </c>
       <c r="R24">
-        <v>5.517502771364999</v>
+        <v>30.882047479478</v>
       </c>
       <c r="S24">
-        <v>0.0004061987720421283</v>
+        <v>0.004598550794340788</v>
       </c>
       <c r="T24">
-        <v>0.0005274281443097343</v>
+        <v>0.004956959409833533</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H25">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I25">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J25">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>2.558060679915</v>
+        <v>5.729859050287667</v>
       </c>
       <c r="R25">
-        <v>15.34836407949</v>
+        <v>34.379154301726</v>
       </c>
       <c r="S25">
-        <v>0.001694920754992744</v>
+        <v>0.007678941337747673</v>
       </c>
       <c r="T25">
-        <v>0.001467178091264084</v>
+        <v>0.005518289308094161</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H26">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I26">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J26">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>1.205015271876</v>
+        <v>1.951904491292889</v>
       </c>
       <c r="R26">
-        <v>10.845137446884</v>
+        <v>17.567140421636</v>
       </c>
       <c r="S26">
-        <v>0.0007984194473657764</v>
+        <v>0.00261586889903894</v>
       </c>
       <c r="T26">
-        <v>0.001036706451346092</v>
+        <v>0.002819748336788954</v>
       </c>
     </row>
   </sheetData>
